--- a/output/StructureDefinition-t-cabs-observation-amv.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-amv.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-observation-amv.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-amv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3902" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="509">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-10:Either subject XOR encounter exists {$this.encounter.exists() xor $this.subject.exists()}vs-de-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-10:Either subject XOR encounter exists {$this.encounter.exists() xor $this.subject.exists()}vs-de-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -305,10 +305,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -426,6 +422,163 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Procedure)
+</t>
+  </si>
+  <si>
+    <t>Observation belongs to a specific extracorporeal procedure.</t>
+  </si>
+  <si>
+    <t>Dasjenige extrakorporale Verfahren, im Rahmen dessen der vorliegende Parameter (die Daten dieser Observation-Ressource) erhoben wurden.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -433,171 +586,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Procedure) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
-</t>
-  </si>
-  <si>
-    <t>Observation belongs to a specific extracorporeal procedure.</t>
-  </si>
-  <si>
-    <t>Dasjenige extrakorporale Verfahren, im Rahmen dessen der vorliegende Parameter (die Daten dieser Observation-Ressource) erhoben wurden.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}mii-reference-1:Either reference.reference OR reference.identifier exists {($this.reference.exists() or ($this.identifier.value.exists() and $this.identifier.system.exists())) xor $this.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-category-procedure-beatmung-snomed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -910,14 +895,17 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Device) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Patient|Device)
 </t>
   </si>
   <si>
-    <t>A reference from one resource to another</t>
-  </si>
-  <si>
-    <t>A reference from one resource to another.</t>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -946,8 +934,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1039,8 +1036,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>ele-1
-obs-7</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>Observation.value[x].id</t>
@@ -1119,17 +1116,14 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
   </si>
   <si>
-    <t>ele-1
-qty-3</t>
+    <t xml:space="preserve">qty-3
+</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -1208,8 +1202,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.interpretation</t>
@@ -1315,8 +1309,17 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/StructureDefinition/devicemetric-eingestellte-gemessene-parameter-beatmung) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/StructureDefinition/devicemetric-eingestellte-gemessene-parameter-beatmung)
 </t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
   </si>
   <si>
     <t>Observation.referenceRange</t>
@@ -1378,15 +1381,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>Observation.referenceRange.low.id</t>
@@ -1411,10 +1407,6 @@
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
   </si>
   <si>
     <t>Observation.referenceRange.low.code</t>
@@ -1513,14 +1505,7 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>Observation.referenceRange.text</t>
@@ -1974,7 +1959,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="222.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2409,18 +2394,18 @@
         <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2443,16 +2428,16 @@
         <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2502,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -2511,18 +2496,18 @@
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2545,16 +2530,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2580,32 +2565,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
@@ -2613,22 +2598,22 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2647,16 +2632,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2706,7 +2691,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -2715,22 +2700,22 @@
         <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2749,16 +2734,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2808,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2825,14 +2810,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2851,16 +2836,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2898,19 +2883,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2919,22 +2904,22 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2953,19 +2938,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3002,19 +2987,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -3023,18 +3008,18 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3057,17 +3042,17 @@
         <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3116,7 +3101,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -3125,22 +3110,22 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3159,19 +3144,17 @@
         <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3220,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -3229,22 +3212,22 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3263,16 +3246,16 @@
         <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3322,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -3331,18 +3314,18 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3365,19 +3348,19 @@
         <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3402,13 +3385,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3426,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -3435,18 +3418,18 @@
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3469,19 +3452,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3506,29 +3489,29 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3537,18 +3520,18 @@
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3571,13 +3554,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3628,7 +3611,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3645,14 +3628,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3671,16 +3654,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3718,19 +3701,19 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3739,18 +3722,18 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3773,19 +3756,19 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3834,7 +3817,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3843,18 +3826,18 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3877,13 +3860,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3934,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3951,14 +3934,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3977,16 +3960,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4024,19 +4007,19 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -4045,18 +4028,18 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4079,19 +4062,19 @@
         <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4140,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4149,18 +4132,18 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4183,16 +4166,16 @@
         <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4242,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4251,18 +4234,18 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4285,19 +4268,17 @@
         <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4346,7 +4327,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4355,18 +4336,18 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4389,19 +4370,17 @@
         <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4450,7 +4429,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4459,18 +4438,18 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4493,19 +4472,19 @@
         <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4554,7 +4533,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4563,18 +4542,18 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4597,19 +4576,19 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4658,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4667,22 +4646,22 @@
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4701,19 +4680,19 @@
         <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4738,13 +4717,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4762,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -4771,18 +4750,18 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4805,13 +4784,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4862,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4879,14 +4858,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4905,16 +4884,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4952,19 +4931,19 @@
         <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -4973,18 +4952,18 @@
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4992,7 +4971,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>75</v>
@@ -5007,19 +4986,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5056,17 +5035,17 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -5075,21 +5054,21 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
@@ -5111,19 +5090,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5133,7 +5112,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5148,11 +5127,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5170,7 +5149,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5179,18 +5158,18 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5213,13 +5192,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5270,7 +5249,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5287,14 +5266,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5313,16 +5292,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5360,19 +5339,19 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5381,18 +5360,18 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5415,19 +5394,19 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5476,7 +5455,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5485,18 +5464,18 @@
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5519,16 +5498,16 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5578,7 +5557,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5587,18 +5566,18 @@
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5621,19 +5600,17 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5682,7 +5659,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5691,18 +5668,18 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5725,19 +5702,17 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5786,7 +5761,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5795,18 +5770,18 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5829,19 +5804,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5890,7 +5865,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5899,21 +5874,21 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>20</v>
@@ -5935,19 +5910,19 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5957,7 +5932,7 @@
         <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>20</v>
@@ -5972,11 +5947,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5994,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -6003,18 +5978,18 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6037,13 +6012,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6094,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6111,14 +6086,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6137,16 +6112,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6184,19 +6159,19 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6205,18 +6180,18 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6239,19 +6214,19 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6300,7 +6275,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6309,18 +6284,18 @@
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6343,16 +6318,16 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6402,7 +6377,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6411,18 +6386,18 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6445,19 +6420,17 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6506,7 +6479,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6515,18 +6488,18 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6549,19 +6522,17 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6610,7 +6581,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6619,18 +6590,18 @@
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6653,19 +6624,19 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6714,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6723,21 +6694,21 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>20</v>
@@ -6759,19 +6730,19 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6781,7 +6752,7 @@
         <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>20</v>
@@ -6796,11 +6767,11 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6818,7 +6789,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6827,18 +6798,18 @@
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6861,13 +6832,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6918,7 +6889,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6935,14 +6906,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6961,16 +6932,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7008,19 +6979,19 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7029,18 +7000,18 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7063,19 +7034,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7124,7 +7095,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7133,18 +7104,18 @@
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7167,16 +7138,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7226,7 +7197,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7235,18 +7206,18 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7269,19 +7240,17 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7330,7 +7299,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7339,18 +7308,18 @@
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7373,19 +7342,17 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7434,7 +7401,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7443,18 +7410,18 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7477,19 +7444,19 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7538,7 +7505,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7547,18 +7514,18 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7581,19 +7548,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -7642,7 +7609,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7651,18 +7618,18 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7685,19 +7652,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -7746,7 +7713,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7755,18 +7722,18 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7789,16 +7756,16 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7848,7 +7815,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7857,22 +7824,22 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7891,16 +7858,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>296</v>
@@ -7952,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -7961,10 +7928,10 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8065,10 +8032,10 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8167,10 +8134,10 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8209,9 +8176,7 @@
       <c r="M61" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>313</v>
       </c>
@@ -8271,10 +8236,10 @@
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -8376,7 +8341,7 @@
         <v>323</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -8407,13 +8372,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8464,7 +8429,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8488,7 +8453,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8507,16 +8472,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8554,19 +8519,19 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8575,10 +8540,10 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -8679,10 +8644,10 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="66" hidden="true">
@@ -8713,7 +8678,7 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>334</v>
@@ -8721,9 +8686,7 @@
       <c r="M66" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>336</v>
       </c>
@@ -8752,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y66" t="s" s="2">
         <v>338</v>
@@ -8785,10 +8748,10 @@
         <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -8819,7 +8782,7 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>342</v>
@@ -8827,9 +8790,7 @@
       <c r="M67" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>344</v>
       </c>
@@ -8889,10 +8850,10 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -8923,7 +8884,7 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>347</v>
@@ -8931,11 +8892,9 @@
       <c r="M68" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -8984,27 +8943,27 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9027,19 +8986,19 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -9088,7 +9047,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9097,21 +9056,21 @@
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>314</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>20</v>
@@ -9155,7 +9114,7 @@
         <v>20</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>20</v>
@@ -9206,12 +9165,12 @@
         <v>323</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>324</v>
@@ -9237,13 +9196,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9294,7 +9253,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9311,14 +9270,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>325</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9337,16 +9296,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9384,19 +9343,19 @@
         <v>20</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9405,15 +9364,15 @@
         <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>326</v>
@@ -9509,15 +9468,15 @@
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>333</v>
@@ -9543,7 +9502,7 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>334</v>
@@ -9551,9 +9510,7 @@
       <c r="M74" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>336</v>
       </c>
@@ -9582,7 +9539,7 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y74" t="s" s="2">
         <v>338</v>
@@ -9615,15 +9572,15 @@
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>341</v>
@@ -9649,7 +9606,7 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>342</v>
@@ -9657,9 +9614,7 @@
       <c r="M75" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N75" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>344</v>
       </c>
@@ -9719,15 +9674,15 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>346</v>
@@ -9753,7 +9708,7 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>347</v>
@@ -9761,11 +9716,9 @@
       <c r="M76" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -9814,27 +9767,27 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AJ76" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9857,19 +9810,19 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -9918,7 +9871,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
@@ -9927,18 +9880,18 @@
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9961,19 +9914,19 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -9998,55 +9951,55 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y78" t="s" s="2">
+      <c r="Z78" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI78" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10065,19 +10018,19 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -10102,14 +10055,14 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
       </c>
@@ -10126,7 +10079,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10135,18 +10088,18 @@
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10169,19 +10122,19 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -10230,7 +10183,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
@@ -10239,18 +10192,18 @@
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10273,16 +10226,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10308,14 +10261,14 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
       </c>
@@ -10332,7 +10285,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
@@ -10341,18 +10294,18 @@
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10375,19 +10328,19 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -10412,14 +10365,14 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
       </c>
@@ -10436,7 +10389,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
@@ -10445,18 +10398,18 @@
         <v>82</v>
       </c>
       <c r="AI82" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10479,16 +10432,16 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10538,7 +10491,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>74</v>
@@ -10547,18 +10500,18 @@
         <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10581,16 +10534,16 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10640,7 +10593,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>74</v>
@@ -10649,18 +10602,18 @@
         <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10683,19 +10636,19 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -10744,7 +10697,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>74</v>
@@ -10753,18 +10706,18 @@
         <v>75</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10787,13 +10740,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10844,7 +10797,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>74</v>
@@ -10861,14 +10814,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -10887,16 +10840,16 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -10934,19 +10887,19 @@
         <v>20</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>74</v>
@@ -10955,22 +10908,22 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -10989,19 +10942,19 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -11050,7 +11003,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>74</v>
@@ -11059,18 +11012,18 @@
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11093,17 +11046,15 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -11152,7 +11103,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>74</v>
@@ -11161,10 +11112,10 @@
         <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>432</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -11195,13 +11146,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11252,7 +11203,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>74</v>
@@ -11276,7 +11227,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -11295,16 +11246,16 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M91" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11342,19 +11293,19 @@
         <v>20</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>74</v>
@@ -11366,7 +11317,7 @@
         <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" hidden="true">
@@ -11470,7 +11421,7 @@
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -11501,7 +11452,7 @@
         <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>334</v>
@@ -11538,7 +11489,7 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>338</v>
@@ -11574,7 +11525,7 @@
         <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" hidden="true">
@@ -11605,7 +11556,7 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>342</v>
@@ -11676,7 +11627,7 @@
         <v>20</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" hidden="true">
@@ -11707,7 +11658,7 @@
         <v>83</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>347</v>
@@ -11717,7 +11668,7 @@
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -11766,27 +11717,27 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AJ95" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11809,19 +11760,19 @@
         <v>83</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -11870,7 +11821,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>74</v>
@@ -11882,15 +11833,15 @@
         <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11913,17 +11864,15 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -11972,7 +11921,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>74</v>
@@ -11981,18 +11930,18 @@
         <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>432</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12015,13 +11964,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12072,7 +12021,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>74</v>
@@ -12089,14 +12038,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12115,16 +12064,16 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M99" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -12162,19 +12111,19 @@
         <v>20</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>74</v>
@@ -12186,15 +12135,15 @@
         <v>20</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12290,15 +12239,15 @@
         <v>20</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12321,7 +12270,7 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>334</v>
@@ -12358,7 +12307,7 @@
         <v>20</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Y101" t="s" s="2">
         <v>338</v>
@@ -12394,15 +12343,15 @@
         <v>20</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12425,7 +12374,7 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>342</v>
@@ -12496,15 +12445,15 @@
         <v>20</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12527,7 +12476,7 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>347</v>
@@ -12537,7 +12486,7 @@
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -12586,27 +12535,27 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AG103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12629,19 +12578,19 @@
         <v>83</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -12690,7 +12639,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>74</v>
@@ -12702,15 +12651,15 @@
         <v>20</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12733,19 +12682,19 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -12755,29 +12704,29 @@
         <v>20</v>
       </c>
       <c r="S105" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="T105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y105" t="s" s="2">
+      <c r="Z105" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>460</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>20</v>
       </c>
@@ -12794,7 +12743,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>74</v>
@@ -12803,18 +12752,18 @@
         <v>82</v>
       </c>
       <c r="AI105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12837,19 +12786,19 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>20</v>
@@ -12874,14 +12823,14 @@
         <v>20</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>20</v>
       </c>
@@ -12898,7 +12847,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>74</v>
@@ -12907,18 +12856,18 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12941,19 +12890,17 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>20</v>
@@ -13002,7 +12949,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>74</v>
@@ -13011,18 +12958,18 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13045,17 +12992,15 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>20</v>
@@ -13104,7 +13049,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>74</v>
@@ -13113,18 +13058,18 @@
         <v>82</v>
       </c>
       <c r="AI108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13147,16 +13092,16 @@
         <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13206,7 +13151,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>74</v>
@@ -13215,18 +13160,18 @@
         <v>75</v>
       </c>
       <c r="AI109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13249,16 +13194,16 @@
         <v>83</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13308,7 +13253,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>74</v>
@@ -13317,18 +13262,18 @@
         <v>75</v>
       </c>
       <c r="AI110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13351,19 +13296,19 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O111" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>20</v>
@@ -13412,7 +13357,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>74</v>
@@ -13421,18 +13366,18 @@
         <v>75</v>
       </c>
       <c r="AI111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13455,13 +13400,13 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13512,7 +13457,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>74</v>
@@ -13529,14 +13474,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -13555,16 +13500,16 @@
         <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="M113" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -13602,19 +13547,19 @@
         <v>20</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>74</v>
@@ -13623,22 +13568,22 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -13657,19 +13602,19 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -13718,7 +13663,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>74</v>
@@ -13727,18 +13672,18 @@
         <v>75</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13761,19 +13706,19 @@
         <v>83</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>20</v>
@@ -13798,13 +13743,13 @@
         <v>20</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>20</v>
@@ -13822,7 +13767,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
@@ -13831,18 +13776,18 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13865,16 +13810,16 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>317</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>319</v>
@@ -13926,7 +13871,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>74</v>
@@ -13935,18 +13880,18 @@
         <v>82</v>
       </c>
       <c r="AI116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13969,19 +13914,19 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
@@ -14006,55 +13951,55 @@
         <v>20</v>
       </c>
       <c r="X117" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y117" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Y117" t="s" s="2">
+      <c r="Z117" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z117" t="s" s="2">
+      <c r="AA117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI117" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AA117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="AJ117" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -14073,19 +14018,19 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N118" t="s" s="2">
+      <c r="O118" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -14110,14 +14055,14 @@
         <v>20</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y118" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z118" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z118" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA118" t="s" s="2">
         <v>20</v>
       </c>
@@ -14134,7 +14079,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>74</v>
@@ -14143,18 +14088,18 @@
         <v>75</v>
       </c>
       <c r="AI118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14180,16 +14125,16 @@
         <v>76</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>20</v>
@@ -14238,7 +14183,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>74</v>
@@ -14250,7 +14195,7 @@
         <v>20</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-t-cabs-observation-amv.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-amv.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-observation-amv.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-amv.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T11:55:29+01:00</t>
+    <t>2025-11-20T17:13:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
